--- a/codebooks/crystallized_tables.xlsx
+++ b/codebooks/crystallized_tables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edb5662/Box/emorie post doc/data synthesis/crystallized/codebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/projects/data synthesis/crystallized/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3301E5-81AD-FB47-91B6-998497F64F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E453B-F720-A242-85BF-C3CBECD4A517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="460" windowWidth="21320" windowHeight="20200" activeTab="3" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
+    <workbookView xWindow="18040" yWindow="0" windowWidth="17800" windowHeight="22400" activeTab="3" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="5" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="Table 3" sheetId="1" r:id="rId3"/>
-    <sheet name="Table 4" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Table 4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="200">
   <si>
     <t>Personality</t>
   </si>
@@ -468,6 +469,215 @@
   </si>
   <si>
     <t>baseYear</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Country (Continent)</t>
+  </si>
+  <si>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>Median Year (SD)</t>
+  </si>
+  <si>
+    <t>Measure(s)</t>
+  </si>
+  <si>
+    <t>E, N, O</t>
+  </si>
+  <si>
+    <t>E, A, C, N, O</t>
+  </si>
+  <si>
+    <t>E, A, C, N</t>
+  </si>
+  <si>
+    <t>N, O</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>E, N</t>
+  </si>
+  <si>
+    <t>2.15 
+(2.41)</t>
+  </si>
+  <si>
+    <t>7.00 
+(0)</t>
+  </si>
+  <si>
+    <t>4.00 
+(0)</t>
+  </si>
+  <si>
+    <t>8.56 
+(-3.51)</t>
+  </si>
+  <si>
+    <t>8.39 
+(9.45)</t>
+  </si>
+  <si>
+    <t>6.75 
+(4.53)</t>
+  </si>
+  <si>
+    <t>6.46 
+(3.86)</t>
+  </si>
+  <si>
+    <t>6.21 
+(2.82)</t>
+  </si>
+  <si>
+    <t>9.53 
+(6.42)</t>
+  </si>
+  <si>
+    <t>15.00 
+(0)</t>
+  </si>
+  <si>
+    <t>Germany 
+(Europe)</t>
+  </si>
+  <si>
+    <t>United States
+(North America)</t>
+  </si>
+  <si>
+    <t>Sweden
+(Europe)</t>
+  </si>
+  <si>
+    <t>The Netherlands
+(Europe)</t>
+  </si>
+  <si>
+    <t>Australia
+(Australia)</t>
+  </si>
+  <si>
+    <t>1990
+(0)</t>
+  </si>
+  <si>
+    <t>2011
+(3.18)</t>
+  </si>
+  <si>
+    <t>2005
+(0)</t>
+  </si>
+  <si>
+    <t>2006/8
+(0)</t>
+  </si>
+  <si>
+    <t>1992
+(1.19)</t>
+  </si>
+  <si>
+    <t>1991
+(0)</t>
+  </si>
+  <si>
+    <t>1984
+(0)</t>
+  </si>
+  <si>
+    <t>78.23
+(6.66)</t>
+  </si>
+  <si>
+    <t>79.47
+(5.36)</t>
+  </si>
+  <si>
+    <t>49.83
+(15.83)</t>
+  </si>
+  <si>
+    <t>44.51
+(16.92)</t>
+  </si>
+  <si>
+    <t>71.71
+(6.97)</t>
+  </si>
+  <si>
+    <t>61.46
+(15.71)</t>
+  </si>
+  <si>
+    <t>79.45
+(7.32)</t>
+  </si>
+  <si>
+    <t>73.60
+(2.66)</t>
+  </si>
+  <si>
+    <t>82.99
+(2.66)</t>
+  </si>
+  <si>
+    <t>75.87
+(7.38)</t>
+  </si>
+  <si>
+    <t>54.77
+(9.84)</t>
+  </si>
+  <si>
+    <t>Vocabulary
+Spot a Word</t>
+  </si>
+  <si>
+    <t>Boston Naming Test
+Information</t>
+  </si>
+  <si>
+    <t>1997
+(3.51)</t>
+  </si>
+  <si>
+    <t>2014
+(3.09)</t>
+  </si>
+  <si>
+    <t>2012
+(0)</t>
+  </si>
+  <si>
+    <t>2010
+(0)</t>
+  </si>
+  <si>
+    <t>1995
+(9.09)</t>
+  </si>
+  <si>
+    <t>1999
+(0)</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
@@ -614,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -682,6 +892,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FD2454-F66B-9C42-B2DA-22F01D27F948}">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -3420,10 +3632,391 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829B0D56-FD34-CD44-BD2C-98B7DAC22752}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE36905-C79A-7044-95D4-90737936A0D9}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/codebooks/crystallized_tables.xlsx
+++ b/codebooks/crystallized_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie/projects/data synthesis/crystallized/codebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Documents/projects/data synthesis/crystallized/codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E453B-F720-A242-85BF-C3CBECD4A517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B559965-E093-D941-9719-E80879B3A5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="0" windowWidth="17800" windowHeight="22400" activeTab="3" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
+    <workbookView xWindow="18040" yWindow="500" windowWidth="17800" windowHeight="20240" xr2:uid="{6C630B20-F913-854F-85AD-EA60866305F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="5" r:id="rId1"/>
@@ -312,16 +312,10 @@
     <t>Jokela et al., 2013</t>
   </si>
   <si>
-    <t>Pooled Analysis of Individual Participant Data using Dummy Codes or random effects</t>
-  </si>
-  <si>
     <t>Yes, random effects or dummy variables</t>
   </si>
   <si>
     <t>Beck &amp; Jackson, 2020; Paige et al., 2017</t>
-  </si>
-  <si>
-    <t>Coordinated Analyses followed by random-effects meta-analysis</t>
   </si>
   <si>
     <t>Number of studies + meta-analysis model</t>
@@ -678,6 +672,12 @@
   </si>
   <si>
     <t>1-3</t>
+  </si>
+  <si>
+    <t>Pooled Analysis of Individual Participant Data using Contrasts or Random Effects</t>
+  </si>
+  <si>
+    <t>Coordinated Analyses Followed by Meta-Analysis</t>
   </si>
 </sst>
 </file>
@@ -728,6 +728,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -824,10 +825,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -840,11 +840,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -858,7 +856,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -867,22 +865,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
@@ -1217,15 +1211,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299088E0-C5DB-DE4D-A573-78CBF53000E4}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>79</v>
@@ -1248,7 +1242,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -1271,10 +1265,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -1283,82 +1277,82 @@
         <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
       </c>
       <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
       </c>
       <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
         <v>103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1376,50 +1370,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
       <c r="G2" t="s">
@@ -1427,16 +1421,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1450,19 +1444,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F4">
@@ -1473,19 +1467,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5">
@@ -1496,16 +1490,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1519,19 +1513,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7">
@@ -1542,19 +1536,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G8" t="s">
@@ -1562,19 +1556,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
@@ -1582,19 +1576,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
@@ -1602,19 +1596,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F11">
@@ -1625,19 +1619,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
@@ -1645,19 +1639,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F13">
@@ -1668,19 +1662,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F14">
@@ -1691,36 +1685,36 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1729,64 +1723,64 @@
       <c r="F16">
         <v>2006</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F18">
         <v>2005</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1795,213 +1789,213 @@
       <c r="F19">
         <v>2005</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F20">
         <v>2006</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F24">
         <v>1991</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F26">
         <v>1984</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F27">
         <v>2001</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2010,64 +2004,64 @@
       <c r="F29">
         <v>2006</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F31">
         <v>2005</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -2076,213 +2070,213 @@
       <c r="F32">
         <v>2005</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F33">
         <v>2006</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F37">
         <v>1991</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F39">
         <v>1984</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F40">
         <v>2001</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2291,64 +2285,64 @@
       <c r="F42">
         <v>2006</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F44">
         <v>2005</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2357,216 +2351,216 @@
       <c r="F45">
         <v>2005</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F46">
         <v>2006</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="18" t="s">
         <v>76</v>
       </c>
       <c r="F47">
         <v>1992</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F50">
         <v>1991</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F52">
         <v>1984</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F53">
         <v>2001</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" t="s">
         <v>73</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2575,64 +2569,64 @@
       <c r="F55">
         <v>2006</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F57">
         <v>2005</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -2641,227 +2635,227 @@
       <c r="F58">
         <v>2005</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F59">
         <v>2006</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F60">
         <v>1992</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F63">
         <v>1991</v>
       </c>
-      <c r="G63" s="20" t="s">
+      <c r="G63" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F65">
         <v>1984</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F66">
         <v>2001</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="7"/>
-      <c r="G67" s="20"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="1"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="7"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="7"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="7"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="7"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="7"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G93">
@@ -2901,727 +2895,710 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="11" t="s">
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="N3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="N4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="11" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="11" t="s">
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="11" t="s">
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="24"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="22" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="11" t="s">
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="11" t="s">
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="11" t="s">
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="11" t="s">
+      <c r="D15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:Q11">
@@ -3635,7 +3612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829B0D56-FD34-CD44-BD2C-98B7DAC22752}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3643,13 +3620,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -3658,234 +3635,234 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" t="s">
-        <v>148</v>
-      </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>158</v>
+      <c r="B2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>196</v>
+        <v>118</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>155</v>
+      <c r="B3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>196</v>
+        <v>123</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>156</v>
+      <c r="B4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>197</v>
+        <v>122</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>179</v>
+        <v>148</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>192</v>
+      <c r="J4" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>156</v>
+      <c r="B5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>197</v>
+        <v>121</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>180</v>
+        <v>148</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>192</v>
+      <c r="J5" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>157</v>
+      <c r="B6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>198</v>
+        <v>120</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>181</v>
+        <v>148</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>193</v>
+      <c r="J6" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>159</v>
+      <c r="B7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>199</v>
+        <v>119</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>182</v>
+      <c r="G7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>194</v>
+      <c r="J7" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>160</v>
+      <c r="B8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>196</v>
+        <v>118</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>183</v>
+        <v>149</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -3895,23 +3872,23 @@
       <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>161</v>
+      <c r="B9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>196</v>
+        <v>118</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>184</v>
+        <v>150</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
@@ -3921,26 +3898,26 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>162</v>
+      <c r="B10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>153</v>
+        <v>117</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>185</v>
+        <v>152</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="I10" t="s">
         <v>30</v>
@@ -3953,23 +3930,23 @@
       <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>163</v>
+      <c r="B11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>196</v>
+        <v>118</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>186</v>
+        <v>148</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
@@ -3979,32 +3956,32 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>164</v>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>196</v>
+        <v>117</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>187</v>
+        <v>148</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="I12" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>195</v>
+      <c r="J12" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4022,251 +3999,251 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="30"/>
-    <col min="5" max="16" width="6.5" style="30" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="30"/>
+    <col min="1" max="4" width="10.83203125" style="25"/>
+    <col min="5" max="16" width="6.5" style="25" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="31" t="s">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>112</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
